--- a/outputs/budget_tables_concatenated.xlsx
+++ b/outputs/budget_tables_concatenated.xlsx
@@ -47385,18 +47385,18 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ITAÚ UNIBANCO S/A - AG. 4830 - SANTOS - BOQUEIRÃO - SP</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITAÚ UNIBANCO S/A - AG. 4830 - SANTOS - BOQUEIRÃO - SP</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>

--- a/outputs/budget_tables_concatenated.xlsx
+++ b/outputs/budget_tables_concatenated.xlsx
@@ -47384,17 +47384,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>188292</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>MARINA MG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>C030 - PEQUENAS INTERVENÇÕES</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -47425,7 +47433,11 @@
           <t>LONDRINA AV-TIRADENTES</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FG EMPREIT. MAO DE OBRA LTDA PU_SUL</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>EXECUÇÃO DE OBRA</t>
@@ -47463,7 +47475,11 @@
           <t>LONDRINA AV-TIRADENTES</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FG EMPREIT. MAO DE OBRA LTDA PU_SUL</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>EXECUÇÃO DE OBRA</t>
@@ -47501,7 +47517,11 @@
           <t>LONDRINA AV-TIRADENTES</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FG EMPREIT. MAO DE OBRA LTDA PU_SUL</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>EXECUÇÃO DE OBRA</t>
@@ -47531,7 +47551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0167</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -47539,7 +47559,11 @@
           <t>SP-LINS DE VASCONCELOS</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JAPJ CONSTRUCOES CIVIS LTDA PU_SUDESTE</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>EXECUÇÃO DE OBRA</t>
